--- a/Petre Clemens tam re quam nomine; Lugentium siccentur occuli.xlsx
+++ b/Petre Clemens tam re quam nomine; Lugentium siccentur occuli.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,11 +398,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>nomen</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -550,17 +550,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>felix</t>
+          <t>non</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dignitas</t>
+          <t>beatus</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -570,7 +570,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fortuna</t>
+          <t>felix</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -580,57 +580,57 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>quod</t>
+          <t>pius</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>deditus</t>
+          <t>dignitas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>servus</t>
+          <t>fortuna</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>princeps</t>
+          <t>orbus</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fides</t>
+          <t>princeps</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>potens</t>
+          <t>ars</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -640,17 +640,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tristis</t>
+          <t>fides</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>furor</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -660,129 +660,129 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tributum</t>
+          <t>tragicus</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>legitimus</t>
+          <t>tempus</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>regula</t>
+          <t>tristis</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2631578947368421</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total Sum</t>
+          <t>gloriosus</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>legitimus</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Motetus Sentiment Words</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Sentiment Value</t>
-        </is>
+          <t>regula</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sanctus</t>
+          <t>Total Average</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>divinitus</t>
+          <t>Total Sum</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>primus</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>non</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1</v>
+          <t>Motetus Sentiment Words</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sentiment Value</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>recte</t>
+          <t>mors</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>clemens</t>
+          <t>regius</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>gratis</t>
+          <t>divinitus</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -792,37 +792,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>quid</t>
+          <t>certamen</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>laus</t>
+          <t>solus</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>cor</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>similis</t>
+          <t>primus</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -832,41 +832,131 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>non</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3846153846153846</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total Sum</t>
+          <t>rectus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>gratus</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sentiment Difference</t>
+          <t>rudis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>quis</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>laus</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>orbus</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>similis</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Total Average</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.05263157894736842</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Total Sum</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sentiment Difference</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Sentiment Average Difference</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>0.1214574898785425</v>
+      <c r="B45" t="n">
+        <v>0.356979405034325</v>
       </c>
     </row>
   </sheetData>
